--- a/プログラム構造.xlsx
+++ b/プログラム構造.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13485" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13485" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="旧" sheetId="1" r:id="rId1"/>
     <sheet name="モジュール構成" sheetId="2" r:id="rId2"/>
     <sheet name="あるべき姿" sheetId="4" r:id="rId3"/>
-    <sheet name="データ構造" sheetId="3" r:id="rId4"/>
+    <sheet name="クラス図" sheetId="5" r:id="rId4"/>
+    <sheet name="データ構造" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">あるべき姿!$A$1:$R$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">旧!$B$2:$E$25</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="217">
   <si>
     <t>ファイル</t>
     <phoneticPr fontId="1"/>
@@ -1315,12 +1316,215 @@
     <t>センサ2</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>■全体像</t>
+    <rPh sb="1" eb="4">
+      <t>ゼンタイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■詳細</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ： </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ： </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ： SerialThread</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stop_event</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>return_value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thread</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ： SerialCom</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>baudrate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>serial_open</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>serial_close</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>serial_read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_serial_init</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ： Sensor</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>serial_read(coding)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>serial_open -&gt; None</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1380,6 +1584,32 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1527,7 +1757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1582,6 +1812,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1633,6 +1864,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3435,12 +3669,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>425904</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>602796</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35379</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1645066" cy="346377"/>
+    <xdr:ext cx="1157433" cy="346377"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="58" name="テキスト ボックス 57">
@@ -3454,8 +3688,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1786618" y="5464629"/>
-          <a:ext cx="1645066" cy="346377"/>
+          <a:off x="2643867" y="4199165"/>
+          <a:ext cx="1157433" cy="346377"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3483,20 +3717,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>低速：</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>View</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> has Controller</a:t>
+            <a:t>100ms</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -3508,6 +3742,805 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>74599</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>205468</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939041D9-E4EE-4E27-BB06-014AE7E556F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8238885" y="2079331"/>
+          <a:ext cx="755436" cy="330494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>初期化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>112938</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185058</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1061829" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B13147AF-C863-4613-A89C-70491F5A2224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8277224" y="4593772"/>
+          <a:ext cx="1061829" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>高速：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>10ms</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>58510</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1061829" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CD03AA-836B-4254-9BFB-D16B16E63FCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8222796" y="5437415"/>
+          <a:ext cx="1061829" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>高速：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>10ms</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="643318" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85857CA-E83D-4793-9064-F84BC0EBB813}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="6238875"/>
+          <a:ext cx="643318" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>スタート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297595</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="グループ化 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D955D935-D2B8-4245-A424-CC9D5CC3EC64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3699381" y="7777844"/>
+          <a:ext cx="1753001" cy="2535010"/>
+          <a:chOff x="2516920" y="7269415"/>
+          <a:chExt cx="1512155" cy="2480426"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="テキスト ボックス 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66CCD4A-F30F-4E50-BCF6-4F21EC80C903}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2516920" y="7269415"/>
+            <a:ext cx="1512155" cy="636335"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>class</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Threading</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="テキスト ボックス 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1E3029-90AA-4B7E-895A-8A197AADDCA2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2516920" y="7896623"/>
+            <a:ext cx="1512155" cy="905103"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>field</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ser</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>stop</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="テキスト ボックス 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13F8AC9-EA6C-4B7B-A167-0187187D2AC3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2516920" y="8797467"/>
+            <a:ext cx="1512155" cy="952374"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>method</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>star</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>411895</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="44" name="グループ化 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44FE16CF-81CB-4177-A04A-12479DEAA6F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5854752" y="8210550"/>
+          <a:ext cx="1753002" cy="1940379"/>
+          <a:chOff x="2516920" y="7269415"/>
+          <a:chExt cx="1512155" cy="1896234"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="テキスト ボックス 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCF901D-99D9-4BF6-8947-8FC2A1344DDB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2516920" y="7269415"/>
+            <a:ext cx="1512155" cy="636335"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>class</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="テキスト ボックス 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B149B461-04D1-4E86-855D-E8579DF47F7E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2516920" y="7896623"/>
+            <a:ext cx="1512155" cy="636335"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>field</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="テキスト ボックス 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA5BFDB-22FD-45EC-943E-9E082C76D110}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2516920" y="8529314"/>
+            <a:ext cx="1512155" cy="636335"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>method</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3808,7 +4841,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="112.5">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -3822,7 +4855,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="56.25">
-      <c r="B4" s="36"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3834,7 +4867,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="37.5">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3848,7 +4881,7 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
@@ -3860,7 +4893,7 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="38"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
@@ -3872,8 +4905,8 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="37.5" customHeight="1">
-      <c r="B8" s="38"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -3884,8 +4917,8 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="38"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
@@ -3894,8 +4927,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="56.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
@@ -3904,7 +4937,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="37.5">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -3918,8 +4951,8 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="40"/>
-      <c r="C12" s="29" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="30" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -3930,8 +4963,8 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="37.5">
-      <c r="B13" s="40"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
@@ -3940,8 +4973,8 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="37.5">
-      <c r="B14" s="40"/>
-      <c r="C14" s="30"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="6" t="s">
         <v>30</v>
       </c>
@@ -3950,8 +4983,8 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="131.25">
-      <c r="B15" s="40"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6" t="s">
         <v>26</v>
       </c>
@@ -3960,8 +4993,8 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="56.25">
-      <c r="B16" s="36"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="6" t="s">
         <v>27</v>
       </c>
@@ -3970,7 +5003,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="37.5">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="42" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -3984,7 +5017,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="50.25" customHeight="1">
-      <c r="B18" s="41"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
@@ -3996,8 +5029,8 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="50.25" customHeight="1">
-      <c r="B19" s="41"/>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="33" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -4008,8 +5041,8 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="50.25" customHeight="1">
-      <c r="B20" s="41"/>
-      <c r="C20" s="33"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="4" t="s">
         <v>41</v>
       </c>
@@ -4018,8 +5051,8 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="56.25">
-      <c r="B21" s="41"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="4" t="s">
         <v>16</v>
       </c>
@@ -4028,7 +5061,7 @@
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -4042,8 +5075,8 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -4054,8 +5087,8 @@
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="28"/>
-      <c r="C24" s="30"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
@@ -4064,8 +5097,8 @@
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="28"/>
-      <c r="C25" s="31"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="6" t="s">
         <v>45</v>
       </c>
@@ -4097,7 +5130,7 @@
   <dimension ref="B3:K67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4132,7 +5165,7 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="14"/>
@@ -4144,7 +5177,7 @@
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="42"/>
+      <c r="B6" s="43"/>
       <c r="D6" s="12"/>
       <c r="K6" s="9" t="s">
         <v>67</v>
@@ -4195,12 +5228,12 @@
     </row>
     <row r="13" spans="2:11">
       <c r="D13" s="14"/>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="44" t="s">
         <v>100</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="45" t="s">
         <v>93</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -4209,9 +5242,9 @@
     </row>
     <row r="14" spans="2:11">
       <c r="D14" s="11"/>
-      <c r="E14" s="43"/>
+      <c r="E14" s="44"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="44"/>
+      <c r="H14" s="45"/>
       <c r="J14" s="9" t="s">
         <v>61</v>
       </c>
@@ -4273,7 +5306,7 @@
     <row r="21" spans="2:10">
       <c r="D21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="45" t="s">
         <v>94</v>
       </c>
       <c r="I21" s="15"/>
@@ -4284,7 +5317,7 @@
     <row r="22" spans="2:10">
       <c r="D22" s="12"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="44"/>
+      <c r="H22" s="45"/>
       <c r="I22" s="15"/>
       <c r="J22" s="9" t="s">
         <v>60</v>
@@ -4317,7 +5350,7 @@
     <row r="26" spans="2:10">
       <c r="D26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="42" t="s">
+      <c r="H26" s="43" t="s">
         <v>104</v>
       </c>
       <c r="I26" s="15"/>
@@ -4328,7 +5361,7 @@
     <row r="27" spans="2:10">
       <c r="D27" s="12"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="42"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="15"/>
     </row>
     <row r="28" spans="2:10">
@@ -4340,7 +5373,7 @@
     <row r="29" spans="2:10">
       <c r="D29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="42" t="s">
+      <c r="H29" s="43" t="s">
         <v>108</v>
       </c>
       <c r="I29" s="15"/>
@@ -4352,7 +5385,7 @@
       <c r="D30" s="12"/>
       <c r="F30" s="19"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="42"/>
+      <c r="H30" s="43"/>
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="2:10">
@@ -4369,12 +5402,12 @@
     </row>
     <row r="33" spans="4:10">
       <c r="D33" s="13"/>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="44" t="s">
         <v>101</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="44" t="s">
+      <c r="H33" s="45" t="s">
         <v>99</v>
       </c>
       <c r="I33" s="15"/>
@@ -4384,9 +5417,9 @@
     </row>
     <row r="34" spans="4:10">
       <c r="D34" s="11"/>
-      <c r="E34" s="43"/>
+      <c r="E34" s="44"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="44"/>
+      <c r="H34" s="45"/>
       <c r="I34" s="15"/>
       <c r="J34" s="9" t="s">
         <v>74</v>
@@ -4409,7 +5442,7 @@
     <row r="37" spans="4:10">
       <c r="D37" s="12"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="42" t="s">
+      <c r="H37" s="43" t="s">
         <v>106</v>
       </c>
       <c r="I37" s="15"/>
@@ -4420,7 +5453,7 @@
     <row r="38" spans="4:10">
       <c r="D38" s="12"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="42"/>
+      <c r="H38" s="43"/>
       <c r="I38" s="15"/>
       <c r="J38" s="9" t="s">
         <v>84</v>
@@ -4446,7 +5479,7 @@
     <row r="41" spans="4:10">
       <c r="D41" s="12"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="42" t="s">
+      <c r="H41" s="43" t="s">
         <v>107</v>
       </c>
       <c r="I41" s="15"/>
@@ -4457,7 +5490,7 @@
     <row r="42" spans="4:10">
       <c r="D42" s="12"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="42"/>
+      <c r="H42" s="43"/>
       <c r="I42" s="15"/>
     </row>
     <row r="43" spans="4:10">
@@ -4477,14 +5510,14 @@
     <row r="45" spans="4:10">
       <c r="D45" s="12"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="42" t="s">
+      <c r="H45" s="43" t="s">
         <v>105</v>
       </c>
       <c r="I45" s="15"/>
     </row>
     <row r="46" spans="4:10">
       <c r="D46" s="12"/>
-      <c r="H46" s="42"/>
+      <c r="H46" s="43"/>
       <c r="I46" s="15"/>
     </row>
     <row r="47" spans="4:10">
@@ -4501,12 +5534,12 @@
     </row>
     <row r="49" spans="4:10">
       <c r="D49" s="14"/>
-      <c r="E49" s="43" t="s">
+      <c r="E49" s="44" t="s">
         <v>102</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
-      <c r="H49" s="44" t="s">
+      <c r="H49" s="45" t="s">
         <v>95</v>
       </c>
       <c r="I49" s="15"/>
@@ -4516,8 +5549,8 @@
     </row>
     <row r="50" spans="4:10">
       <c r="D50" s="12"/>
-      <c r="E50" s="43"/>
-      <c r="H50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="H50" s="45"/>
       <c r="I50" s="15"/>
     </row>
     <row r="51" spans="4:10">
@@ -4537,12 +5570,12 @@
     </row>
     <row r="54" spans="4:10">
       <c r="D54" s="14"/>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="44" t="s">
         <v>103</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
-      <c r="H54" s="44" t="s">
+      <c r="H54" s="45" t="s">
         <v>96</v>
       </c>
       <c r="I54" s="15"/>
@@ -4552,9 +5585,9 @@
     </row>
     <row r="55" spans="4:10">
       <c r="D55" s="12"/>
-      <c r="E55" s="43"/>
+      <c r="E55" s="44"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="44"/>
+      <c r="H55" s="45"/>
       <c r="I55" s="15"/>
       <c r="J55" s="9" t="s">
         <v>76</v>
@@ -4571,7 +5604,7 @@
     <row r="58" spans="4:10">
       <c r="D58" s="12"/>
       <c r="G58" s="12"/>
-      <c r="H58" s="44" t="s">
+      <c r="H58" s="45" t="s">
         <v>97</v>
       </c>
       <c r="I58" s="15"/>
@@ -4582,7 +5615,7 @@
     <row r="59" spans="4:10">
       <c r="D59" s="12"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="44"/>
+      <c r="H59" s="45"/>
       <c r="I59" s="15"/>
     </row>
     <row r="60" spans="4:10">
@@ -4596,7 +5629,7 @@
     <row r="62" spans="4:10">
       <c r="D62" s="12"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="44" t="s">
+      <c r="H62" s="45" t="s">
         <v>98</v>
       </c>
       <c r="I62" s="15"/>
@@ -4606,7 +5639,7 @@
     </row>
     <row r="63" spans="4:10">
       <c r="D63" s="12"/>
-      <c r="H63" s="44"/>
+      <c r="H63" s="45"/>
       <c r="I63" s="15"/>
     </row>
     <row r="64" spans="4:10">
@@ -4620,14 +5653,14 @@
     </row>
     <row r="66" spans="3:5">
       <c r="D66" s="14"/>
-      <c r="E66" s="43" t="s">
+      <c r="E66" s="44" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="67" spans="3:5">
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="43"/>
+      <c r="E67" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4660,14 +5693,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B2:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="24">
+      <c r="B2" s="28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="24">
+      <c r="B27" s="28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="C28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
@@ -4676,6 +5725,145 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6">
+      <c r="B4" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="F5" s="48"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="F10" s="48"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="48"/>
+      <c r="D11" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="48"/>
+      <c r="D15" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V124"/>
   <sheetViews>
